--- a/biology/Zoologie/Cantharis_figurata/Cantharis_figurata.xlsx
+++ b/biology/Zoologie/Cantharis_figurata/Cantharis_figurata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cantharis figurata est une espèce d'insectes coléoptères de la famille des Cantharidae que l'on rencontre en Europe centrale et nordique, jusqu'à la Sibérie. Présent dans les îles Britanniques et en France.
 </t>
